--- a/Project/Work Breakdown Structure.xlsx
+++ b/Project/Work Breakdown Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\JabRef\jabref\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDDD701-7DD8-4952-B422-0AEA0CB360B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB10C5A-27F8-4621-9931-CFFF60CAE420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>TASKS</t>
   </si>
@@ -33,27 +33,12 @@
     <t>Use-Case Diagram</t>
   </si>
   <si>
-    <t>Fazer Use-Case Diagram Geral, a partir da pasta topo.</t>
-  </si>
-  <si>
-    <t>Use Case: Name,Description and actors.</t>
-  </si>
-  <si>
     <t>Design Patterns</t>
   </si>
   <si>
-    <t>Localizar o codigo (path?)</t>
-  </si>
-  <si>
     <t>Code Smells</t>
   </si>
   <si>
-    <t>Ilustrar(screenshot) o code snippet onde aparece o smell.</t>
-  </si>
-  <si>
-    <t>Proposta de refactor ao code smell.</t>
-  </si>
-  <si>
     <t>Codebase Metrics</t>
   </si>
   <si>
@@ -72,25 +57,52 @@
     <t>E)</t>
   </si>
   <si>
-    <t>Descrever o raciocinio que leva a identificar o smell.</t>
-  </si>
-  <si>
-    <t>Descrever o raciocinio que leva a identificar o padrao.</t>
-  </si>
-  <si>
-    <t>Elaborar sub Use case (1 p/pessoa).</t>
-  </si>
-  <si>
-    <t>Rever 3 Code Smell proposals de outros colegas</t>
-  </si>
-  <si>
-    <t>Rever 3 Design Pattern identificados por outros colegas</t>
-  </si>
-  <si>
-    <t>Identificar Sub-sets de Use-cases a partir do Use-case de topo.</t>
-  </si>
-  <si>
-    <t>Ilustrar(screenshot) o code snippet onde aparece o pattern.</t>
+    <t>Run the metricsReloaded Plugin on intellij</t>
+  </si>
+  <si>
+    <t>Extract, compile and analyse data</t>
+  </si>
+  <si>
+    <t>Elaborate deliverable report document</t>
+  </si>
+  <si>
+    <t>Push to remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find and screenshot 3 code smell examples </t>
+  </si>
+  <si>
+    <t>Describe the location(path) of each example</t>
+  </si>
+  <si>
+    <t>Summarize what's happening in the example</t>
+  </si>
+  <si>
+    <t>Elaborate a refactoring proposal</t>
+  </si>
+  <si>
+    <t>Review 3 code smell proposals from other team members</t>
+  </si>
+  <si>
+    <t>F)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find and screenshot 3 design pattern examples </t>
+  </si>
+  <si>
+    <t>Review 3 design pattern proposals from other team members</t>
+  </si>
+  <si>
+    <t>Elaborate a use-case description file: name,description and actors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaborate 1 sub use-case diagram </t>
+  </si>
+  <si>
+    <t>Identify a subset use-case withing the TOP use-case diagram</t>
+  </si>
+  <si>
+    <t>(Team Effort) Elaborate TOP use-case diagram</t>
   </si>
 </sst>
 </file>
@@ -100,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +176,12 @@
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -234,16 +252,13 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -259,6 +274,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -605,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,96 +640,121 @@
     <col min="4" max="4" width="44.7109375" customWidth="1"/>
     <col min="5" max="5" width="49.140625" customWidth="1"/>
     <col min="6" max="6" width="52.42578125" customWidth="1"/>
+    <col min="7" max="7" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="61.5" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:12" ht="61.5" x14ac:dyDescent="0.9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
   </sheetData>

--- a/Project/Work Breakdown Structure.xlsx
+++ b/Project/Work Breakdown Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\JabRef\jabref\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB10C5A-27F8-4621-9931-CFFF60CAE420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A86EC8A-CC0E-4976-BC30-9B7090D08EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,10 +99,10 @@
     <t xml:space="preserve">Elaborate 1 sub use-case diagram </t>
   </si>
   <si>
-    <t>Identify a subset use-case withing the TOP use-case diagram</t>
-  </si>
-  <si>
     <t>(Team Effort) Elaborate TOP use-case diagram</t>
+  </si>
+  <si>
+    <t>Identify a subset use-case within the TOP use-case diagram</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>23</v>

--- a/Project/Work Breakdown Structure.xlsx
+++ b/Project/Work Breakdown Structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\JabRef\jabref\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A86EC8A-CC0E-4976-BC30-9B7090D08EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAA3927-514D-4A7F-BF83-F617F2A8C51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>TASKS</t>
   </si>
@@ -103,6 +103,33 @@
   </si>
   <si>
     <t>Identify a subset use-case within the TOP use-case diagram</t>
+  </si>
+  <si>
+    <t>User Stories</t>
+  </si>
+  <si>
+    <t>Demo Video</t>
+  </si>
+  <si>
+    <t>Elaborate 1 use-case diagram for each implementation</t>
+  </si>
+  <si>
+    <t>Elaborate user stories for each implementation</t>
+  </si>
+  <si>
+    <t>Elaborate acceptance criteria for each user story</t>
+  </si>
+  <si>
+    <t>Study base JabRef code</t>
+  </si>
+  <si>
+    <t>Locate important classes to modify</t>
+  </si>
+  <si>
+    <t>Implementations</t>
+  </si>
+  <si>
+    <t>Unit Tests</t>
   </si>
 </sst>
 </file>
@@ -112,7 +139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +207,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -252,7 +286,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -280,6 +314,12 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -626,31 +666,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" customWidth="1"/>
+    <col min="2" max="2" width="57.88671875" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.109375" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" customWidth="1"/>
     <col min="7" max="7" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="61.5" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:12" ht="61.2" x14ac:dyDescent="1.1000000000000001">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -675,7 +715,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -696,7 +736,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -716,7 +756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -739,7 +779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -757,8 +797,60 @@
       </c>
       <c r="F7" s="3"/>
     </row>
+    <row r="8" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>